--- a/Assets/StreamingAssets/Excels/NetworkData.xlsx
+++ b/Assets/StreamingAssets/Excels/NetworkData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26250" windowHeight="11655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>clientId</t>
+  </si>
+  <si>
+    <t>clientType</t>
   </si>
   <si>
     <t>serverIp</t>
@@ -975,20 +978,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,18 +1004,24 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:4">
+    <row r="2" ht="27" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
         <v>12345</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/Excels/NetworkData.xlsx
+++ b/Assets/StreamingAssets/Excels/NetworkData.xlsx
@@ -44,7 +44,7 @@
     <t>serverPort</t>
   </si>
   <si>
-    <t>10.161.6.104</t>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
